--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psap-Gpr37.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psap-Gpr37.xlsx
@@ -537,28 +537,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>369.660016</v>
+        <v>137.0025913333334</v>
       </c>
       <c r="H2">
-        <v>1108.980048</v>
+        <v>411.007774</v>
       </c>
       <c r="I2">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="J2">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1828753333333334</v>
+        <v>0.06874933333333333</v>
       </c>
       <c r="N2">
-        <v>0.5486260000000001</v>
+        <v>0.206248</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>67.60169864600535</v>
+        <v>9.418836819105779</v>
       </c>
       <c r="R2">
-        <v>608.4152878140482</v>
+        <v>84.769531371952</v>
       </c>
       <c r="S2">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="T2">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,22 +605,22 @@
         <v>749.776932</v>
       </c>
       <c r="I3">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="J3">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1828753333333334</v>
+        <v>0.06874933333333333</v>
       </c>
       <c r="N3">
-        <v>0.5486260000000001</v>
+        <v>0.206248</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>45.705235455048</v>
+        <v>17.182221407904</v>
       </c>
       <c r="R3">
-        <v>411.347119095432</v>
+        <v>154.639992671136</v>
       </c>
       <c r="S3">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="T3">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,28 +661,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>78.101406</v>
+        <v>88.73577866666666</v>
       </c>
       <c r="H4">
-        <v>234.304218</v>
+        <v>266.207336</v>
       </c>
       <c r="I4">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874526</v>
       </c>
       <c r="J4">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874527</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1828753333333334</v>
+        <v>0.06874933333333333</v>
       </c>
       <c r="N4">
-        <v>0.5486260000000001</v>
+        <v>0.206248</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>14.282820656052</v>
+        <v>6.100525626147554</v>
       </c>
       <c r="R4">
-        <v>128.545385904468</v>
+        <v>54.90473063532799</v>
       </c>
       <c r="S4">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874526</v>
       </c>
       <c r="T4">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,28 +723,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1552.995524333333</v>
+        <v>1469.52242</v>
       </c>
       <c r="H5">
-        <v>4658.986573</v>
+        <v>4408.56726</v>
       </c>
       <c r="I5">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205989</v>
       </c>
       <c r="J5">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205988</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1828753333333334</v>
+        <v>0.06874933333333333</v>
       </c>
       <c r="N5">
-        <v>0.5486260000000001</v>
+        <v>0.206248</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>284.0045741776332</v>
+        <v>101.0286866933867</v>
       </c>
       <c r="R5">
-        <v>2556.041167598698</v>
+        <v>909.2581802404799</v>
       </c>
       <c r="S5">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205989</v>
       </c>
       <c r="T5">
-        <v>0.6900109020274288</v>
+        <v>0.7554661056205988</v>
       </c>
     </row>
   </sheetData>
